--- a/ABERSHIP_transcription_vtls004566921/Series 151 - 160/Series_153_vtls004570567/File_153-19_vtls004650075.xlsx
+++ b/ABERSHIP_transcription_vtls004566921/Series 151 - 160/Series_153_vtls004570567/File_153-19_vtls004650075.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://prifysgolaber-my.sharepoint.com/personal/jas79_aber_ac_uk/Documents/CS39440 Major Project/ABERSHIP_transcription_vtls004566921/Series 151 - 160/Series_153_vtls004570567/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="19320" windowHeight="9975" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="7530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="153-19-1" sheetId="1" r:id="rId1"/>
     <sheet name="153-19-2" sheetId="4" r:id="rId2"/>
     <sheet name="153-19-3" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'153-19-1'!$1:$9</definedName>
@@ -347,7 +351,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -901,37 +905,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -993,12 +971,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
@@ -1010,6 +1014,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1058,7 +1065,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1091,9 +1098,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1126,6 +1150,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1343,28 +1384,28 @@
     </row>
     <row r="2" spans="1:17" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="9"/>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28"/>
       <c r="E2" s="8"/>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="54"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="19"/>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="30" t="s">
+      <c r="M2" s="48"/>
+      <c r="N2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="31"/>
-      <c r="P2" s="32"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="55"/>
       <c r="Q2"/>
     </row>
     <row r="3" spans="1:17" ht="6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -1373,38 +1414,38 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="8"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="43"/>
       <c r="J3" s="19"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="35"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="58"/>
       <c r="Q3"/>
     </row>
     <row r="4" spans="1:17" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="9"/>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="43"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="52">
+      <c r="F4" s="38">
         <v>27304</v>
       </c>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="54"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="40"/>
       <c r="J4" s="20"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="35"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="58"/>
       <c r="Q4"/>
     </row>
     <row r="5" spans="1:17" ht="6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -1413,38 +1454,38 @@
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="43"/>
       <c r="J5" s="20"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="35"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="58"/>
       <c r="Q5"/>
     </row>
     <row r="6" spans="1:17" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="9"/>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="44"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="51"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="37"/>
       <c r="J6" s="21"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="38"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="61"/>
       <c r="Q6"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -1452,53 +1493,53 @@
       <c r="Q7"/>
     </row>
     <row r="8" spans="1:17" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="60" t="s">
+      <c r="F8" s="32"/>
+      <c r="G8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="60" t="s">
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="60"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="60" t="s">
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60" t="s">
+      <c r="N8" s="24"/>
+      <c r="O8" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="P8" s="60" t="s">
+      <c r="P8" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="Q8" s="60" t="s">
+      <c r="Q8" s="24" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="3" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="48"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34"/>
       <c r="G9" s="7" t="s">
         <v>14</v>
       </c>
@@ -1523,9 +1564,9 @@
       <c r="N9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="60"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="60"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
     </row>
     <row r="10" spans="1:17" s="4" customFormat="1" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
@@ -1538,8 +1579,8 @@
       <c r="D10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
       <c r="G10" s="13" t="s">
         <v>7</v>
       </c>
@@ -1581,10 +1622,10 @@
       <c r="D11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="39"/>
+      <c r="E11" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="46"/>
       <c r="G11" s="13" t="s">
         <v>27</v>
       </c>
@@ -3081,22 +3122,59 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="L2:M6"/>
+    <mergeCell ref="N2:P6"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B6:D6"/>
@@ -3107,59 +3185,22 @@
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="L2:M6"/>
-    <mergeCell ref="N2:P6"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E65:F65"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -3206,28 +3247,28 @@
     </row>
     <row r="2" spans="1:17" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="9"/>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28"/>
       <c r="E2" s="8"/>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="54"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="19"/>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="30" t="s">
+      <c r="M2" s="48"/>
+      <c r="N2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="31"/>
-      <c r="P2" s="32"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="55"/>
       <c r="Q2"/>
     </row>
     <row r="3" spans="1:17" ht="6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -3236,38 +3277,38 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="8"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="43"/>
       <c r="J3" s="19"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="35"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="58"/>
       <c r="Q3"/>
     </row>
     <row r="4" spans="1:17" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="9"/>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="43"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="52">
+      <c r="F4" s="38">
         <v>27304</v>
       </c>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="54"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="40"/>
       <c r="J4" s="20"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="35"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="58"/>
       <c r="Q4"/>
     </row>
     <row r="5" spans="1:17" ht="6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -3276,38 +3317,38 @@
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="43"/>
       <c r="J5" s="20"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="35"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="58"/>
       <c r="Q5"/>
     </row>
     <row r="6" spans="1:17" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="9"/>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="44"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="51"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="37"/>
       <c r="J6" s="21"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="38"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="61"/>
       <c r="Q6"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -3315,53 +3356,53 @@
       <c r="Q7"/>
     </row>
     <row r="8" spans="1:17" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="60" t="s">
+      <c r="F8" s="32"/>
+      <c r="G8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="60" t="s">
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="60"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="60" t="s">
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60" t="s">
+      <c r="N8" s="24"/>
+      <c r="O8" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="P8" s="60" t="s">
+      <c r="P8" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="Q8" s="60" t="s">
+      <c r="Q8" s="24" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="3" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="48"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34"/>
       <c r="G9" s="7" t="s">
         <v>14</v>
       </c>
@@ -3386,9 +3427,9 @@
       <c r="N9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="60"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="60"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
     </row>
     <row r="10" spans="1:17" s="4" customFormat="1" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
@@ -3401,8 +3442,8 @@
       <c r="D10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
       <c r="G10" s="13" t="s">
         <v>7</v>
       </c>
@@ -3444,10 +3485,10 @@
       <c r="D11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="39"/>
+      <c r="E11" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="46"/>
       <c r="G11" s="13" t="s">
         <v>27</v>
       </c>
@@ -4826,51 +4867,24 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="L2:M6"/>
+    <mergeCell ref="N2:P6"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:F9"/>
     <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E11:F11"/>
@@ -4887,24 +4901,51 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="L2:M6"/>
-    <mergeCell ref="N2:P6"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -4917,7 +4958,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4951,28 +4992,28 @@
     </row>
     <row r="2" spans="1:17" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="9"/>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28"/>
       <c r="E2" s="8"/>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="54"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="40"/>
       <c r="J2" s="9"/>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="30" t="s">
+      <c r="M2" s="48"/>
+      <c r="N2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="31"/>
-      <c r="P2" s="32"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="55"/>
       <c r="Q2"/>
     </row>
     <row r="3" spans="1:17" ht="6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -4981,38 +5022,38 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="8"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="43"/>
       <c r="J3" s="9"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="35"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="58"/>
       <c r="Q3"/>
     </row>
     <row r="4" spans="1:17" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="9"/>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="43"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="52">
+      <c r="F4" s="38">
         <v>27304</v>
       </c>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="54"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="40"/>
       <c r="J4" s="10"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="35"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="58"/>
       <c r="Q4"/>
     </row>
     <row r="5" spans="1:17" ht="6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -5021,38 +5062,38 @@
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="43"/>
       <c r="J5" s="10"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="35"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="58"/>
       <c r="Q5"/>
     </row>
     <row r="6" spans="1:17" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="9"/>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="44"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="51"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="37"/>
       <c r="J6" s="11"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="38"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="61"/>
       <c r="Q6"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -5060,53 +5101,53 @@
       <c r="Q7"/>
     </row>
     <row r="8" spans="1:17" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="60" t="s">
+      <c r="F8" s="32"/>
+      <c r="G8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="60" t="s">
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="60"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="60" t="s">
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60" t="s">
+      <c r="N8" s="24"/>
+      <c r="O8" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="P8" s="60" t="s">
+      <c r="P8" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="Q8" s="60" t="s">
+      <c r="Q8" s="24" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="3" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="48"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34"/>
       <c r="G9" s="7" t="s">
         <v>14</v>
       </c>
@@ -5131,9 +5172,9 @@
       <c r="N9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="60"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="60"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
     </row>
     <row r="10" spans="1:17" s="4" customFormat="1" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
@@ -5146,8 +5187,8 @@
       <c r="D10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
       <c r="G10" s="13" t="s">
         <v>7</v>
       </c>
@@ -5191,10 +5232,10 @@
       <c r="D11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="39"/>
+      <c r="E11" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="46"/>
       <c r="G11" s="13" t="s">
         <v>27</v>
       </c>
@@ -6601,51 +6642,24 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="L2:M6"/>
+    <mergeCell ref="N2:P6"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:F9"/>
     <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E11:F11"/>
@@ -6662,38 +6676,53 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="L2:M6"/>
-    <mergeCell ref="N2:P6"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>